--- a/data/trans_bre/P1002-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8113877209273342</v>
+        <v>-0.7156524530010222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.079750454100138</v>
+        <v>4.948035663779122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.982042574942908</v>
+        <v>2.383972129502756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.937013057298758</v>
+        <v>1.937547904531542</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1785793909258555</v>
+        <v>-0.1686027893322232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6176412547611605</v>
+        <v>0.5961618762171341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2555139324056519</v>
+        <v>0.3086107769227088</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2677436018131004</v>
+        <v>0.2539694335098009</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.542773382761549</v>
+        <v>3.703989990260915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.39402522282392</v>
+        <v>11.38350645505338</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.526995709377974</v>
+        <v>8.447794373992181</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.510939602371378</v>
+        <v>6.69397000158119</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.21270420848857</v>
+        <v>1.219101477223318</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.152469560438172</v>
+        <v>2.194454799268997</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.806570111542921</v>
+        <v>1.84261434295513</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.650463224407237</v>
+        <v>1.620120905284464</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.736148740789977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.728679245657679</v>
+        <v>4.72867924565768</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3898271003539056</v>
@@ -749,7 +749,7 @@
         <v>1.723114774207288</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8655690406143982</v>
+        <v>0.8655690406143984</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1836413816977896</v>
+        <v>-0.2355861050001363</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.323757722016251</v>
+        <v>4.292327231002492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.402612094819792</v>
+        <v>4.590417535483889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.457227790092464</v>
+        <v>2.629756289533431</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06060202141280404</v>
+        <v>-0.05007891530816704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4816982865375171</v>
+        <v>0.5037273655205668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9096249814860199</v>
+        <v>0.9480953743934932</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3447390708045792</v>
+        <v>0.3863109835054941</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.333134055908654</v>
+        <v>4.232828407095336</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.05407543123349</v>
+        <v>9.922858449836397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.183781869834199</v>
+        <v>9.274104484401683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.803097341095002</v>
+        <v>6.960273255649417</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9834284939610829</v>
+        <v>0.9764891064667309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.616280346213384</v>
+        <v>1.626592512368777</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.942626417721577</v>
+        <v>2.975124839933596</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.536598089406519</v>
+        <v>1.597471578635022</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.81037413851682</v>
+        <v>2.713510138573794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.182723800881093</v>
+        <v>4.246097804522251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.52123116850035</v>
+        <v>3.43069911012857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.185014973202675</v>
+        <v>1.113878431657394</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3315573369728937</v>
+        <v>0.3369355014090392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5526912729613904</v>
+        <v>0.5587110980238441</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5334931932043604</v>
+        <v>0.5202668292731198</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1278175563079852</v>
+        <v>0.1212430480868467</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.980891295867131</v>
+        <v>8.955582084189771</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.52839592733056</v>
+        <v>10.38562536647393</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.425953767195512</v>
+        <v>8.97410740451555</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.934873123150669</v>
+        <v>6.764718643781709</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.824589179507043</v>
+        <v>1.751409403609304</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.42534469731957</v>
+        <v>2.32952984517068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.595993917545167</v>
+        <v>2.352729933286671</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.227292641420809</v>
+        <v>1.162146710899655</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.708449255296908</v>
+        <v>1.774919883034728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.492671261728387</v>
+        <v>3.683936504809413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.297549158672598</v>
+        <v>0.5413008148898563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.813205555023671</v>
+        <v>4.624349953869757</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2464029896767425</v>
+        <v>0.277156562178685</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4246359841741871</v>
+        <v>0.4154014894939821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03423707949342089</v>
+        <v>0.06562937354714604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7333053514574157</v>
+        <v>0.7552474752083311</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.551566800530213</v>
+        <v>6.511910285436233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.032963621789309</v>
+        <v>9.28256889075438</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.468718287593338</v>
+        <v>5.746166935627665</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.904525348673822</v>
+        <v>8.936749793689708</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.550784628348933</v>
+        <v>1.588053068285602</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.5484104313439</v>
+        <v>1.631708661047001</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9750682044902522</v>
+        <v>1.02702114515652</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.136406213862062</v>
+        <v>2.259855662266234</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.063659110353194</v>
+        <v>2.051638598356188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.731194472449117</v>
+        <v>5.592432617412708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.089863769871914</v>
+        <v>3.997694201210942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.866793816122824</v>
+        <v>3.831151345482581</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3643941518647506</v>
+        <v>0.3505054689953788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7559146520096518</v>
+        <v>0.7606524542807338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6768243993251126</v>
+        <v>0.6690947319245106</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6045542252333197</v>
+        <v>0.5873337415545804</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.572427938750856</v>
+        <v>4.56999767347823</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.781154923821893</v>
+        <v>8.652502326713964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.637792413217778</v>
+        <v>6.694477599865177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.254405986889414</v>
+        <v>6.259878651109811</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9833234910823551</v>
+        <v>0.9665475163289505</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.451942773108299</v>
+        <v>1.423023246358733</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.389985086390445</v>
+        <v>1.387136995014101</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.194851271928271</v>
+        <v>1.240386796533379</v>
       </c>
     </row>
     <row r="19">
